--- a/implementation/spec_factory_phase_checklist.xlsx
+++ b/implementation/spec_factory_phase_checklist.xlsx
@@ -182,7 +182,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -207,6 +207,38 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE7E6E6"/>
           <bgColor rgb="FFE7E6E6"/>
         </patternFill>
       </fill>
@@ -464,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +528,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>2026-02-13 04:09 UTC</t>
+          <t>Updated: 2026-02-13T07:32:17Z</t>
         </is>
       </c>
     </row>
@@ -681,22 +713,22 @@
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H10" s="10" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="30" customFormat="1" customHeight="1" s="1">
@@ -711,22 +743,22 @@
         </is>
       </c>
       <c r="C11" s="9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="30" customFormat="1" customHeight="1" s="1">
@@ -741,10 +773,10 @@
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12" s="9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="9" t="n">
         <v>0</v>
@@ -753,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="30" customFormat="1" customHeight="1" s="1">
@@ -771,22 +803,22 @@
         </is>
       </c>
       <c r="C13" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="9" t="n">
-        <v>1</v>
-      </c>
       <c r="E13" s="9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="9" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H13" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="30" customFormat="1" customHeight="1" s="1">
@@ -801,22 +833,22 @@
         </is>
       </c>
       <c r="C14" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="9" t="n">
-        <v>2</v>
-      </c>
       <c r="E14" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="9" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H14" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="30" customFormat="1" customHeight="1" s="1">
@@ -831,13 +863,13 @@
         </is>
       </c>
       <c r="C15" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="9" t="n">
-        <v>1</v>
-      </c>
       <c r="E15" s="9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>0</v>
@@ -846,74 +878,67 @@
         <v>3</v>
       </c>
       <c r="H15" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="21.95" customFormat="1" customHeight="1" s="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ADDENDUM: PRACTICAL CHATMOCK INTEGRATION ON WINDOWS (MODEL TIERING + AUTORECOVERY)</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" ht="21.95" customFormat="1" customHeight="1" s="1">
-      <c r="A16" s="11" t="inlineStr">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="45" customFormat="1" customHeight="1" s="1">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="B16" s="12" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>All phases</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n">
-        <v>56</v>
-      </c>
-      <c r="D16" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" s="13" t="n">
+      <c r="C17" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="13" t="n">
-        <v>72</v>
-      </c>
-      <c r="H16" s="14" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="17" ht="45" customFormat="1" customHeight="1" s="1">
-      <c r="A17" s="15" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B17" s="16" t="inlineStr">
-        <is>
-          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
-        </is>
-      </c>
-      <c r="C17" s="16" t="inlineStr">
-        <is>
-          <t>Authoring workbook + workbook_map present for category</t>
-        </is>
-      </c>
-      <c r="D17" s="17" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E17" s="16" t="inlineStr">
-        <is>
-          <t>helper_files/mouse/mouseData.xlsm + helper_files/mouse/_control_plane/workbook_map.json</t>
-        </is>
-      </c>
-      <c r="F17" s="16" t="inlineStr">
-        <is>
-          <t>Keep map in sync with new fields; expand range beyond B9:B83</t>
-        </is>
-      </c>
-      <c r="G17" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
+      <c r="E17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="30" customFormat="1" customHeight="1" s="1">
@@ -929,20 +954,24 @@
       </c>
       <c r="C18" s="16" t="inlineStr">
         <is>
-          <t>Generated field_rules.json exists</t>
-        </is>
-      </c>
-      <c r="D18" s="17" t="inlineStr">
+          <t>Authoring workbook + workbook_map present for category</t>
+        </is>
+      </c>
+      <c r="D18" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E18" s="16" t="inlineStr">
         <is>
-          <t>helper_files/mouse/_generated/field_rules.json</t>
-        </is>
-      </c>
-      <c r="F18" s="16" t="n"/>
+          <t>helper_files/mouse/mouseData.xlsm + helper_files/mouse/_control_plane/workbook_map.json</t>
+        </is>
+      </c>
+      <c r="F18" s="16" t="inlineStr">
+        <is>
+          <t>Keep map in sync with new fields; expand range beyond B9:B83</t>
+        </is>
+      </c>
       <c r="G18" s="18" t="inlineStr">
         <is>
           <t>High</t>
@@ -962,17 +991,17 @@
       </c>
       <c r="C19" s="16" t="inlineStr">
         <is>
-          <t>Generated ui_field_catalog.json exists</t>
-        </is>
-      </c>
-      <c r="D19" s="17" t="inlineStr">
+          <t>Generated field_rules.json exists</t>
+        </is>
+      </c>
+      <c r="D19" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E19" s="16" t="inlineStr">
         <is>
-          <t>helper_files/mouse/_generated/ui_field_catalog.json</t>
+          <t>helper_files/mouse/_generated/field_rules.json</t>
         </is>
       </c>
       <c r="F19" s="16" t="n"/>
@@ -995,23 +1024,23 @@
       </c>
       <c r="C20" s="16" t="inlineStr">
         <is>
-          <t>Generated known_values.json exists</t>
-        </is>
-      </c>
-      <c r="D20" s="17" t="inlineStr">
+          <t>Generated ui_field_catalog.json exists</t>
+        </is>
+      </c>
+      <c r="D20" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E20" s="16" t="inlineStr">
         <is>
-          <t>helper_files/mouse/_generated/known_values.json</t>
+          <t>helper_files/mouse/_generated/ui_field_catalog.json</t>
         </is>
       </c>
       <c r="F20" s="16" t="n"/>
       <c r="G20" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -1028,24 +1057,20 @@
       </c>
       <c r="C21" s="16" t="inlineStr">
         <is>
-          <t>Generated component_db JSONs exist</t>
-        </is>
-      </c>
-      <c r="D21" s="17" t="inlineStr">
+          <t>Generated known_values.json exists</t>
+        </is>
+      </c>
+      <c r="D21" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E21" s="16" t="inlineStr">
         <is>
-          <t>helper_files/mouse/_generated/component_db/*.json</t>
-        </is>
-      </c>
-      <c r="F21" s="16" t="inlineStr">
-        <is>
-          <t>Expand component types and ensure enums/components are normalized</t>
-        </is>
-      </c>
+          <t>helper_files/mouse/_generated/known_values.json</t>
+        </is>
+      </c>
+      <c r="F21" s="16" t="n"/>
       <c r="G21" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1065,22 +1090,22 @@
       </c>
       <c r="C22" s="16" t="inlineStr">
         <is>
-          <t>Generated key_migrations.json exists</t>
-        </is>
-      </c>
-      <c r="D22" s="17" t="inlineStr">
+          <t>Generated component_db JSONs exist</t>
+        </is>
+      </c>
+      <c r="D22" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E22" s="16" t="inlineStr">
         <is>
-          <t>helper_files/mouse/_generated/key_migrations.json</t>
+          <t>helper_files/mouse/_generated/component_db/*.json</t>
         </is>
       </c>
       <c r="F22" s="16" t="inlineStr">
         <is>
-          <t>Add migrations whenever keys are renamed; keep backward-compat tests</t>
+          <t>Expand component types and ensure enums/components are normalized</t>
         </is>
       </c>
       <c r="G22" s="18" t="inlineStr">
@@ -1102,22 +1127,22 @@
       </c>
       <c r="C23" s="16" t="inlineStr">
         <is>
-          <t>Compilation report emitted (hashes/counts/diffs)</t>
-        </is>
-      </c>
-      <c r="D23" s="17" t="inlineStr">
+          <t>Generated key_migrations.json exists</t>
+        </is>
+      </c>
+      <c r="D23" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E23" s="16" t="inlineStr">
         <is>
-          <t>helper_files/mouse/_generated/_compile_report.json</t>
+          <t>helper_files/mouse/_generated/key_migrations.json</t>
         </is>
       </c>
       <c r="F23" s="16" t="inlineStr">
         <is>
-          <t>Use counts to enforce full-field coverage targets</t>
+          <t>Add migrations whenever keys are renamed; keep backward-compat tests</t>
         </is>
       </c>
       <c r="G23" s="18" t="inlineStr">
@@ -1139,22 +1164,22 @@
       </c>
       <c r="C24" s="16" t="inlineStr">
         <is>
-          <t>Field Rules Studio / control-plane editing UI exists</t>
-        </is>
-      </c>
-      <c r="D24" s="19" t="inlineStr">
+          <t>Compilation report emitted (hashes/counts/diffs)</t>
+        </is>
+      </c>
+      <c r="D24" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E24" s="16" t="inlineStr">
         <is>
-          <t>tools/gui/app.py Field Rules Studio &gt; Compile &amp; Reports (Phase 1 gate metrics, guardrail checks, validate-rules trigger)</t>
+          <t>helper_files/mouse/_generated/_compile_report.json</t>
         </is>
       </c>
       <c r="F24" s="16" t="inlineStr">
         <is>
-          <t>Preserve existing UI layout style; expand guardrail checks as new artifacts are added.</t>
+          <t>Use counts to enforce full-field coverage targets</t>
         </is>
       </c>
       <c r="G24" s="18" t="inlineStr">
@@ -1176,27 +1201,27 @@
       </c>
       <c r="C25" s="16" t="inlineStr">
         <is>
-          <t>All intended mouse fields authored for current scope (75 keys, B9:B83)</t>
-        </is>
-      </c>
-      <c r="D25" s="19" t="inlineStr">
+          <t>Field Rules Studio / control-plane editing UI exists</t>
+        </is>
+      </c>
+      <c r="D25" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E25" s="16" t="inlineStr">
         <is>
-          <t>helper_files/mouse/_generated/_compile_report.json (field_count=75) + helper_files/mouse/_control_plane/workbook_map.json (key_list B9:B83)</t>
+          <t>tools/gui/app.py Field Rules Studio &gt; Compile &amp; Reports (Phase 1 gate metrics, guardrail checks, validate-rules trigger)</t>
         </is>
       </c>
       <c r="F25" s="16" t="inlineStr">
         <is>
-          <t>When scope expands, extend workbook key range and regenerate artifacts.</t>
+          <t>Preserve existing UI layout style; expand guardrail checks as new artifacts are added.</t>
         </is>
       </c>
       <c r="G25" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1213,22 +1238,22 @@
       </c>
       <c r="C26" s="16" t="inlineStr">
         <is>
-          <t>Critical + identity buckets populated (non-zero)</t>
-        </is>
-      </c>
-      <c r="D26" s="19" t="inlineStr">
+          <t>All intended mouse fields authored for current scope (75 keys, B9:B83)</t>
+        </is>
+      </c>
+      <c r="D26" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E26" s="16" t="inlineStr">
         <is>
-          <t>helper_files/mouse/_generated/_compile_report.json counts: identity=1 critical=1; parse_templates coverage for required/critical/identity = 100%</t>
+          <t>helper_files/mouse/_generated/_compile_report.json (field_count=75) + helper_files/mouse/_control_plane/workbook_map.json (key_list B9:B83)</t>
         </is>
       </c>
       <c r="F26" s="16" t="inlineStr">
         <is>
-          <t>Maintain expectations-driven priority enforcement and keep identity defaults for canonical identity keys.</t>
+          <t>When scope expands, extend workbook key range and regenerate artifacts.</t>
         </is>
       </c>
       <c r="G26" s="18" t="inlineStr">
@@ -1250,27 +1275,27 @@
       </c>
       <c r="C27" s="16" t="inlineStr">
         <is>
-          <t>parse_templates.json generated as standalone artifact</t>
-        </is>
-      </c>
-      <c r="D27" s="20" t="inlineStr">
+          <t>Critical + identity buckets populated (non-zero)</t>
+        </is>
+      </c>
+      <c r="D27" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E27" s="16" t="inlineStr">
         <is>
-          <t>helper_files/mouse/_generated/parse_templates.json + src/field-rules/compiler.js</t>
+          <t>helper_files/mouse/_generated/_compile_report.json counts: identity=1 critical=1; parse_templates coverage for required/critical/identity = 100%</t>
         </is>
       </c>
       <c r="F27" s="16" t="inlineStr">
         <is>
-          <t>Expand template coverage for all critical/required fields with richer context and negatives</t>
+          <t>Maintain expectations-driven priority enforcement and keep identity defaults for canonical identity keys.</t>
         </is>
       </c>
       <c r="G27" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -1287,22 +1312,22 @@
       </c>
       <c r="C28" s="16" t="inlineStr">
         <is>
-          <t>cross_validation_rules.json generated as standalone artifact</t>
-        </is>
-      </c>
-      <c r="D28" s="20" t="inlineStr">
+          <t>parse_templates.json generated as standalone artifact</t>
+        </is>
+      </c>
+      <c r="D28" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E28" s="16" t="inlineStr">
         <is>
-          <t>helper_files/mouse/_generated/cross_validation_rules.json + src/field-rules/compiler.js</t>
+          <t>helper_files/mouse/_generated/parse_templates.json + src/field-rules/compiler.js</t>
         </is>
       </c>
       <c r="F28" s="16" t="inlineStr">
         <is>
-          <t>Increase authored rule depth and category-specific consistency constraints</t>
+          <t>Expand template coverage for all critical/required fields with richer context and negatives</t>
         </is>
       </c>
       <c r="G28" s="18" t="inlineStr">
@@ -1324,59 +1349,59 @@
       </c>
       <c r="C29" s="16" t="inlineStr">
         <is>
-          <t>JSON Schema validation for generated artifacts (AJV)</t>
-        </is>
-      </c>
-      <c r="D29" s="20" t="inlineStr">
+          <t>cross_validation_rules.json generated as standalone artifact</t>
+        </is>
+      </c>
+      <c r="D29" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E29" s="16" t="inlineStr">
         <is>
-          <t>src/field-rules/compiler.js validateRules() + categories/_shared/*.json + AJV</t>
+          <t>helper_files/mouse/_generated/cross_validation_rules.json + src/field-rules/compiler.js</t>
         </is>
       </c>
       <c r="F29" s="16" t="inlineStr">
         <is>
-          <t>Tighten schemas toward full strict contract and add CI gate in Phase 2</t>
+          <t>Increase authored rule depth and category-specific consistency constraints</t>
         </is>
       </c>
       <c r="G29" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="30" ht="30" customFormat="1" customHeight="1" s="1">
       <c r="A30" s="15" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B30" s="16" t="inlineStr">
         <is>
-          <t>ARTIFACT COMPILATION PIPELINE &amp; VALIDATION TOOLCHAIN</t>
+          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
         </is>
       </c>
       <c r="C30" s="16" t="inlineStr">
         <is>
-          <t>Compilation CLI command exists (category-compile)</t>
-        </is>
-      </c>
-      <c r="D30" s="17" t="inlineStr">
+          <t>JSON Schema validation for generated artifacts (AJV)</t>
+        </is>
+      </c>
+      <c r="D30" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E30" s="16" t="inlineStr">
         <is>
-          <t>src/cli/spec.js</t>
+          <t>src/field-rules/compiler.js validateRules() + categories/_shared/*.json + AJV</t>
         </is>
       </c>
       <c r="F30" s="16" t="inlineStr">
         <is>
-          <t>Add --dry-run / --diff / --watch options per plan</t>
+          <t>Tighten schemas toward full strict contract and add CI gate in Phase 2</t>
         </is>
       </c>
       <c r="G30" s="18" t="inlineStr">
@@ -1398,22 +1423,22 @@
       </c>
       <c r="C31" s="16" t="inlineStr">
         <is>
-          <t>Field rules verification command exists (field-rules-verify)</t>
-        </is>
-      </c>
-      <c r="D31" s="17" t="inlineStr">
+          <t>Compilation CLI command exists (category-compile)</t>
+        </is>
+      </c>
+      <c r="D31" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E31" s="16" t="inlineStr">
         <is>
-          <t>src/cli/spec.js + src/ingest/fieldRulesVerify.js</t>
+          <t>src/cli/spec.js</t>
         </is>
       </c>
       <c r="F31" s="16" t="inlineStr">
         <is>
-          <t>Extend verification to ui_field_catalog/known_values/component_db consistency</t>
+          <t>Add --dry-run / --diff / --watch options per plan</t>
         </is>
       </c>
       <c r="G31" s="18" t="inlineStr">
@@ -1435,27 +1460,27 @@
       </c>
       <c r="C32" s="16" t="inlineStr">
         <is>
-          <t>Watch mode for rule compilation (chokidar)</t>
-        </is>
-      </c>
-      <c r="D32" s="20" t="inlineStr">
+          <t>Field rules verification command exists (field-rules-verify)</t>
+        </is>
+      </c>
+      <c r="D32" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E32" s="16" t="inlineStr">
         <is>
-          <t>src/field-rules/compiler.js watchCompileRules() + src/cli/spec.js compile-rules --watch</t>
+          <t>src/cli/spec.js + src/ingest/fieldRulesVerify.js</t>
         </is>
       </c>
       <c r="F32" s="16" t="inlineStr">
         <is>
-          <t>Watch mode supports debounce, max-events guardrails, and cross-platform chokidar behavior.</t>
+          <t>Extend verification to ui_field_catalog/known_values/component_db consistency</t>
         </is>
       </c>
       <c r="G32" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -1472,22 +1497,22 @@
       </c>
       <c r="C33" s="16" t="inlineStr">
         <is>
-          <t>Golden fixture for field_rules compile output</t>
-        </is>
-      </c>
-      <c r="D33" s="17" t="inlineStr">
+          <t>Watch mode for rule compilation (chokidar)</t>
+        </is>
+      </c>
+      <c r="D33" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E33" s="16" t="inlineStr">
         <is>
-          <t>src/ingest/fieldRulesVerify.js semantic/byte verification + src/cli/spec.js field-rules-verify --strict-bytes + test/fieldRulesVerify.test.js</t>
+          <t>src/field-rules/compiler.js watchCompileRules() + src/cli/spec.js compile-rules --watch</t>
         </is>
       </c>
       <c r="F33" s="16" t="inlineStr">
         <is>
-          <t>Semantic compare now ignores volatile keys while retaining optional strict byte mode for CI parity checks.</t>
+          <t>Watch mode supports debounce, max-events guardrails, and cross-platform chokidar behavior.</t>
         </is>
       </c>
       <c r="G33" s="18" t="inlineStr">
@@ -1509,22 +1534,22 @@
       </c>
       <c r="C34" s="16" t="inlineStr">
         <is>
-          <t>Golden benchmark harness for end-to-end outputs</t>
-        </is>
-      </c>
-      <c r="D34" s="19" t="inlineStr">
+          <t>Golden fixture for field_rules compile output</t>
+        </is>
+      </c>
+      <c r="D34" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E34" s="16" t="inlineStr">
         <is>
-          <t>src/benchmark/goldenBenchmark.js + src/testing/goldenFiles.js + src/cli/spec.js benchmark/benchmark-golden + accuracy-report</t>
+          <t>src/ingest/fieldRulesVerify.js semantic/byte verification + src/cli/spec.js field-rules-verify --strict-bytes + test/fieldRulesVerify.test.js</t>
         </is>
       </c>
       <c r="F34" s="16" t="inlineStr">
         <is>
-          <t>Benchmark + accuracy reporting now available with per-field metrics and markdown export.</t>
+          <t>Semantic compare now ignores volatile keys while retaining optional strict byte mode for CI parity checks.</t>
         </is>
       </c>
       <c r="G34" s="18" t="inlineStr">
@@ -1546,22 +1571,22 @@
       </c>
       <c r="C35" s="16" t="inlineStr">
         <is>
-          <t>Schema versioning &amp; migrations (semver + key migrations)</t>
-        </is>
-      </c>
-      <c r="D35" s="19" t="inlineStr">
+          <t>Golden benchmark harness for end-to-end outputs</t>
+        </is>
+      </c>
+      <c r="D35" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E35" s="16" t="inlineStr">
         <is>
-          <t>src/field-rules/migrations.js + src/field-rules/compiler.js key_migrations doc emission/validation + categories/_shared/key_migrations_schema.json + test/migrations.test.js</t>
+          <t>src/benchmark/goldenBenchmark.js + src/testing/goldenFiles.js + src/cli/spec.js benchmark/benchmark-golden + accuracy-report</t>
         </is>
       </c>
       <c r="F35" s="16" t="inlineStr">
         <is>
-          <t>Semver classification + migration transforms now emit/validate structured migration docs; extend authoring UX for advanced merge/split curation later.</t>
+          <t>Benchmark + accuracy reporting now available with per-field metrics and markdown export.</t>
         </is>
       </c>
       <c r="G35" s="18" t="inlineStr">
@@ -1583,27 +1608,27 @@
       </c>
       <c r="C36" s="16" t="inlineStr">
         <is>
-          <t>Type generation (TS/Zod) from field rules</t>
-        </is>
-      </c>
-      <c r="D36" s="20" t="inlineStr">
+          <t>Schema versioning &amp; migrations (semver + key migrations)</t>
+        </is>
+      </c>
+      <c r="D36" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E36" s="16" t="inlineStr">
         <is>
-          <t>src/build/generate-types.js + src/cli/spec.js generate-types + test/generateTypes.test.js</t>
+          <t>src/field-rules/migrations.js + src/field-rules/compiler.js key_migrations doc emission/validation + categories/_shared/key_migrations_schema.json + test/migrations.test.js</t>
         </is>
       </c>
       <c r="F36" s="16" t="inlineStr">
         <is>
-          <t>Generated Zod schemas + TS types from field_rules and known_values are now emitted deterministically.</t>
+          <t>Semver classification + migration transforms now emit/validate structured migration docs; extend authoring UX for advanced merge/split curation later.</t>
         </is>
       </c>
       <c r="G36" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1645,27 @@
       </c>
       <c r="C37" s="16" t="inlineStr">
         <is>
-          <t>validate-rules CLI (schema + referential integrity)</t>
-        </is>
-      </c>
-      <c r="D37" s="20" t="inlineStr">
+          <t>Type generation (TS/Zod) from field rules</t>
+        </is>
+      </c>
+      <c r="D37" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E37" s="16" t="inlineStr">
         <is>
-          <t>src/cli/spec.js validate-rules + src/field-rules/compiler.js</t>
+          <t>src/build/generate-types.js + src/cli/spec.js generate-types + test/generateTypes.test.js</t>
         </is>
       </c>
       <c r="F37" s="16" t="inlineStr">
         <is>
-          <t>Add referential-integrity checks for enum/component links and migration safety</t>
+          <t>Generated Zod schemas + TS types from field_rules and known_values are now emitted deterministically.</t>
         </is>
       </c>
       <c r="G37" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1657,64 +1682,64 @@
       </c>
       <c r="C38" s="16" t="inlineStr">
         <is>
-          <t>Dry-run diff output (what changed + impact)</t>
-        </is>
-      </c>
-      <c r="D38" s="20" t="inlineStr">
+          <t>validate-rules CLI (schema + referential integrity)</t>
+        </is>
+      </c>
+      <c r="D38" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E38" s="16" t="inlineStr">
         <is>
-          <t>src/cli/spec.js compile-rules --dry-run + compile-report + rules-diff + src/field-rules/compiler.js classification</t>
+          <t>src/cli/spec.js validate-rules + src/field-rules/compiler.js</t>
         </is>
       </c>
       <c r="F38" s="16" t="inlineStr">
         <is>
-          <t>Dry-run diff now paired with breaking/potentially-breaking classification via rules-diff output.</t>
+          <t>Add referential-integrity checks for enum/component links and migration safety</t>
         </is>
       </c>
       <c r="G38" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="39" ht="45" customFormat="1" customHeight="1" s="1">
       <c r="A39" s="15" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="B39" s="16" t="inlineStr">
         <is>
-          <t>FIELD RULES RUNTIME ENGINE (NO BYPASS)</t>
+          <t>ARTIFACT COMPILATION PIPELINE &amp; VALIDATION TOOLCHAIN</t>
         </is>
       </c>
       <c r="C39" s="16" t="inlineStr">
         <is>
-          <t>Single canonical FieldRulesEngine module exists and used by CLI+daemon+GUI</t>
-        </is>
-      </c>
-      <c r="D39" s="20" t="inlineStr">
+          <t>Dry-run diff output (what changed + impact)</t>
+        </is>
+      </c>
+      <c r="D39" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E39" s="16" t="inlineStr">
         <is>
-          <t>Runtime engine is now enforced in runProduct, publish-time finalExporter, and override finalization workflow (no-bypass runtime gate across CLI/daemon/review paths).</t>
+          <t>src/cli/spec.js compile-rules --dry-run + compile-report + rules-diff + src/field-rules/compiler.js classification</t>
         </is>
       </c>
       <c r="F39" s="16" t="inlineStr">
         <is>
-          <t>Keep this as mandatory architecture invariant for future entrypoints.</t>
+          <t>Dry-run diff now paired with breaking/potentially-breaking classification via rules-diff output.</t>
         </is>
       </c>
       <c r="G39" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1731,22 +1756,22 @@
       </c>
       <c r="C40" s="16" t="inlineStr">
         <is>
-          <t>Evidence Auditor hard gate (value != unk requires url+snippet_id+quote)</t>
-        </is>
-      </c>
-      <c r="D40" s="20" t="inlineStr">
+          <t>Single canonical FieldRulesEngine module exists and used by CLI+daemon+GUI</t>
+        </is>
+      </c>
+      <c r="D40" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E40" s="16" t="inlineStr">
         <is>
-          <t>FieldRulesEngine.auditEvidence() now supports strict evidence invariants (source_id, snippet_hash, quote_span, retrieved_at, extraction_method) in addition to url/snippet_id/quote checks.</t>
+          <t>Runtime engine is now enforced in runProduct, publish-time finalExporter, and override finalization workflow (no-bypass runtime gate across CLI/daemon/review paths).</t>
         </is>
       </c>
       <c r="F40" s="16" t="inlineStr">
         <is>
-          <t>Wire strict-evidence enforcement across all publish paths once deterministic provenance is complete in crawler/extractors.</t>
+          <t>Keep this as mandatory architecture invariant for future entrypoints.</t>
         </is>
       </c>
       <c r="G40" s="18" t="inlineStr">
@@ -1768,22 +1793,22 @@
       </c>
       <c r="C41" s="16" t="inlineStr">
         <is>
-          <t>normalizeCandidate() driven by field_rules templates, units, shapes</t>
-        </is>
-      </c>
-      <c r="D41" s="20" t="inlineStr">
+          <t>Evidence Auditor hard gate (value != unk requires url+snippet_id+quote)</t>
+        </is>
+      </c>
+      <c r="D41" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E41" s="16" t="inlineStr">
         <is>
-          <t>FieldRulesEngine.normalizeCandidate() now handles scalar/list coercion, unit conversion, ranges, url validation, and component_ref resolution (exact/alias/fuzzy via component DB).</t>
+          <t>FieldRulesEngine.auditEvidence() now supports strict evidence invariants (source_id, snippet_hash, quote_span, retrieved_at, extraction_method) in addition to url/snippet_id/quote checks.</t>
         </is>
       </c>
       <c r="F41" s="16" t="inlineStr">
         <is>
-          <t>Expand normalization-function library and add broader golden fixture coverage for less common data formats.</t>
+          <t>Wire strict-evidence enforcement across all publish paths once deterministic provenance is complete in crawler/extractors.</t>
         </is>
       </c>
       <c r="G41" s="18" t="inlineStr">
@@ -1805,22 +1830,22 @@
       </c>
       <c r="C42" s="16" t="inlineStr">
         <is>
-          <t>Enum policy enforcement (closed/open + needs_curation)</t>
-        </is>
-      </c>
-      <c r="D42" s="20" t="inlineStr">
+          <t>normalizeCandidate() driven by field_rules templates, units, shapes</t>
+        </is>
+      </c>
+      <c r="D42" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E42" s="16" t="inlineStr">
         <is>
-          <t>Closed/open enum policy enforced with alias resolution plus runtime curation queue signaling and persisted suggestions in helper_files/&lt;category&gt;/_suggestions/enums.json.</t>
+          <t>FieldRulesEngine.normalizeCandidate() now handles scalar/list coercion, unit conversion, ranges, url validation, and component_ref resolution (exact/alias/fuzzy via component DB).</t>
         </is>
       </c>
       <c r="F42" s="16" t="inlineStr">
         <is>
-          <t>Continue expanding per-category known_values and curation review workflow.</t>
+          <t>Expand normalization-function library and add broader golden fixture coverage for less common data formats.</t>
         </is>
       </c>
       <c r="G42" s="18" t="inlineStr">
@@ -1842,27 +1867,27 @@
       </c>
       <c r="C43" s="16" t="inlineStr">
         <is>
-          <t>Cross-validation engine for field-level constraints</t>
-        </is>
-      </c>
-      <c r="D43" s="20" t="inlineStr">
+          <t>Enum policy enforcement (closed/open + needs_curation)</t>
+        </is>
+      </c>
+      <c r="D43" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E43" s="16" t="inlineStr">
         <is>
-          <t>FieldRulesEngine.crossValidate() now supports range, conditional_require, component_db_lookup, group_completeness, and mutual_exclusion checks.</t>
+          <t>Closed/open enum policy enforced with alias resolution plus runtime curation queue signaling and persisted suggestions in helper_files/&lt;category&gt;/_suggestions/enums.json.</t>
         </is>
       </c>
       <c r="F43" s="16" t="inlineStr">
         <is>
-          <t>Increase authored cross-validation rule depth per category and add replay-level regression coverage.</t>
+          <t>Continue expanding per-category known_values and curation review workflow.</t>
         </is>
       </c>
       <c r="G43" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -1879,27 +1904,27 @@
       </c>
       <c r="C44" s="16" t="inlineStr">
         <is>
-          <t>Unknown builder produces standardized unknown objects (reason-coded)</t>
-        </is>
-      </c>
-      <c r="D44" s="19" t="inlineStr">
+          <t>Cross-validation engine for field-level constraints</t>
+        </is>
+      </c>
+      <c r="D44" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E44" s="16" t="inlineStr">
         <is>
-          <t>Unknown-object flow is now consistently reason-coded through engine normalization/evidence/cross-validation failures and override runtime demotion path.</t>
+          <t>FieldRulesEngine.crossValidate() now supports range, conditional_require, component_db_lookup, group_completeness, and mutual_exclusion checks.</t>
         </is>
       </c>
       <c r="F44" s="16" t="inlineStr">
         <is>
-          <t>Maintain unknown_reason taxonomy consistency in future pipeline modules.</t>
+          <t>Increase authored cross-validation rule depth per category and add replay-level regression coverage.</t>
         </is>
       </c>
       <c r="G44" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1916,27 +1941,27 @@
       </c>
       <c r="C45" s="16" t="inlineStr">
         <is>
-          <t>applyKeyMigrations(record) used at publish time</t>
-        </is>
-      </c>
-      <c r="D45" s="19" t="inlineStr">
+          <t>Unknown builder produces standardized unknown objects (reason-coded)</t>
+        </is>
+      </c>
+      <c r="D45" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E45" s="16" t="inlineStr">
         <is>
-          <t>Publish path now applies key migrations through runtime engine before final write (writeFinalOutputs runtime gate + migration pass).</t>
+          <t>Unknown-object flow is now consistently reason-coded through engine normalization/evidence/cross-validation failures and override runtime demotion path.</t>
         </is>
       </c>
       <c r="F45" s="16" t="inlineStr">
         <is>
-          <t>Keep key_migrations docs complete whenever fields are renamed/split/merged.</t>
+          <t>Maintain unknown_reason taxonomy consistency in future pipeline modules.</t>
         </is>
       </c>
       <c r="G45" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1978,22 @@
       </c>
       <c r="C46" s="16" t="inlineStr">
         <is>
-          <t>Determinism tests: replay yields identical outputs across runs</t>
-        </is>
-      </c>
-      <c r="D46" s="19" t="inlineStr">
+          <t>applyKeyMigrations(record) used at publish time</t>
+        </is>
+      </c>
+      <c r="D46" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E46" s="16" t="inlineStr">
         <is>
-          <t>Determinism coverage added for repeated normalizeFullRecord runs and expanded runtime-gate/final-export regression tests.</t>
+          <t>Publish path now applies key migrations through runtime engine before final write (writeFinalOutputs runtime gate + migration pass).</t>
         </is>
       </c>
       <c r="F46" s="16" t="inlineStr">
         <is>
-          <t>Extend to larger replay fixture batches as Phase 10 hardening grows.</t>
+          <t>Keep key_migrations docs complete whenever fields are renamed/split/merged.</t>
         </is>
       </c>
       <c r="G46" s="18" t="inlineStr">
@@ -1980,37 +2005,37 @@
     <row r="47" ht="30" customFormat="1" customHeight="1" s="1">
       <c r="A47" s="15" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="B47" s="16" t="inlineStr">
         <is>
-          <t>MULTI-ROUND WEB CRAWLING &amp; EVIDENCE COLLECTION PIPELINE</t>
+          <t>FIELD RULES RUNTIME ENGINE (NO BYPASS)</t>
         </is>
       </c>
       <c r="C47" s="16" t="inlineStr">
         <is>
-          <t>EvidencePack builder exists (snippets + references)</t>
-        </is>
-      </c>
-      <c r="D47" s="17" t="inlineStr">
+          <t>Determinism tests: replay yields identical outputs across runs</t>
+        </is>
+      </c>
+      <c r="D47" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E47" s="16" t="inlineStr">
         <is>
-          <t>EvidencePack v2 now emits source-level metadata, snippet hashes, normalized text, json_ld_product snippets, and strict provenance primitives.</t>
+          <t>Determinism coverage added for repeated normalizeFullRecord runs and expanded runtime-gate/final-export regression tests.</t>
         </is>
       </c>
       <c r="F47" s="16" t="inlineStr">
         <is>
-          <t>Propagate deterministic extractor snippets into the same citation format for full strict-evidence parity.</t>
+          <t>Extend to larger replay fixture batches as Phase 10 hardening grows.</t>
         </is>
       </c>
       <c r="G47" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2027,22 +2052,22 @@
       </c>
       <c r="C48" s="16" t="inlineStr">
         <is>
-          <t>Every accepted value is tied to EvidencePack snippet_id(s) + quote(s)</t>
-        </is>
-      </c>
-      <c r="D48" s="19" t="inlineStr">
+          <t>EvidencePack builder exists (snippets + references)</t>
+        </is>
+      </c>
+      <c r="D48" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E48" s="16" t="inlineStr">
         <is>
-          <t>Deterministic candidates now receive parser-native EvidencePack bindings (candidate_fingerprint -&gt; snippet_id) and flow into provenance via evidenceRefs.</t>
+          <t>EvidencePack v2 now emits source-level metadata, snippet hashes, normalized text, json_ld_product snippets, and strict provenance primitives.</t>
         </is>
       </c>
       <c r="F48" s="16" t="inlineStr">
         <is>
-          <t>Maintain binding stability as extractor keyPath logic evolves and keep regression tests on fingerprint format.</t>
+          <t>Propagate deterministic extractor snippets into the same citation format for full strict-evidence parity.</t>
         </is>
       </c>
       <c r="G48" s="18" t="inlineStr">
@@ -2064,27 +2089,27 @@
       </c>
       <c r="C49" s="16" t="inlineStr">
         <is>
-          <t>Tiered source policy &amp; domain approvals applied in crawling</t>
-        </is>
-      </c>
-      <c r="D49" s="19" t="inlineStr">
+          <t>Every accepted value is tied to EvidencePack snippet_id(s) + quote(s)</t>
+        </is>
+      </c>
+      <c r="D49" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E49" s="16" t="inlineStr">
         <is>
-          <t>Tier/domain policy now loads from rich source registry metadata via category loader + planner sourceHostMap.</t>
+          <t>Deterministic candidates now receive parser-native EvidencePack bindings (candidate_fingerprint -&gt; snippet_id) and flow into provenance via evidenceRefs.</t>
         </is>
       </c>
       <c r="F49" s="16" t="inlineStr">
         <is>
-          <t>Continue tuning per-source field-coverage heuristics and tier-specific stop rules.</t>
+          <t>Maintain binding stability as extractor keyPath logic evolves and keep regression tests on fingerprint format.</t>
         </is>
       </c>
       <c r="G49" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -2101,64 +2126,64 @@
       </c>
       <c r="C50" s="16" t="inlineStr">
         <is>
+          <t>Tiered source policy &amp; domain approvals applied in crawling</t>
+        </is>
+      </c>
+      <c r="D50" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E50" s="16" t="inlineStr">
+        <is>
+          <t>Tier/domain policy now loads from rich source registry metadata via category loader + planner sourceHostMap.</t>
+        </is>
+      </c>
+      <c r="F50" s="16" t="inlineStr">
+        <is>
+          <t>Continue tuning per-source field-coverage heuristics and tier-specific stop rules.</t>
+        </is>
+      </c>
+      <c r="G50" s="18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="30" customFormat="1" customHeight="1" s="1">
+      <c r="A51" s="15" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="B51" s="16" t="inlineStr">
+        <is>
+          <t>MULTI-ROUND WEB CRAWLING &amp; EVIDENCE COLLECTION PIPELINE</t>
+        </is>
+      </c>
+      <c r="C51" s="16" t="inlineStr">
+        <is>
           <t>Caching, rate limits, and replayable fetch artifacts</t>
         </is>
       </c>
-      <c r="D50" s="19" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E50" s="16" t="inlineStr">
+      <c r="D51" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E51" s="16" t="inlineStr">
         <is>
           <t>Replay artifacts remain in place; per-host and per-source rate limits are enforced in fetchers.</t>
         </is>
       </c>
-      <c r="F50" s="16" t="inlineStr">
+      <c r="F51" s="16" t="inlineStr">
         <is>
           <t>Add replay mode assertions in end-to-end crawl tests for no-network guarantees.</t>
         </is>
       </c>
-      <c r="G50" s="18" t="inlineStr">
+      <c r="G51" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>MULTI-ROUND WEB CRAWLING &amp; EVIDENCE COLLECTION PIPELINE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Source registry defined for mouse with &gt;=5 tiered sources and per-source crawl config</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>helper_files/mouse/sources.json + loader flattening of rich source metadata into sourceHostMap.</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Expand health tracking fields and automated source freshness checks.</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>High</t>
         </is>
       </c>
     </row>
@@ -2175,62 +2200,62 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>Source registry defined for mouse with &gt;=5 tiered sources and per-source crawl config</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>helper_files/mouse/sources.json + loader flattening of rich source metadata into sourceHostMap.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Expand health tracking fields and automated source freshness checks.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="30" customFormat="1" customHeight="1" s="1">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MULTI-ROUND WEB CRAWLING &amp; EVIDENCE COLLECTION PIPELINE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>robots.txt compliance + per-source crawl delay enforced in fetch layer</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>src/fetcher/robotsPolicy.js + PlaywrightFetcher/HttpFetcher robots checks and rate_limit_ms support.</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Add deny/allow telemetry rollups to source health dashboards.</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A53" s="15" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="B53" s="16" t="inlineStr">
-        <is>
-          <t>LLM-POWERED FIELD EXTRACTION &amp; DETERMINISTIC PARSING</t>
-        </is>
-      </c>
-      <c r="C53" s="16" t="inlineStr">
-        <is>
-          <t>LLM extraction module exists</t>
-        </is>
-      </c>
-      <c r="D53" s="17" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E53" s="16" t="inlineStr">
-        <is>
-          <t>src/llm/extractCandidatesLLM.js</t>
-        </is>
-      </c>
-      <c r="F53" s="16" t="inlineStr">
-        <is>
-          <t>Wire field_rules slice + enums/components into prompts</t>
-        </is>
-      </c>
-      <c r="G53" s="18" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -2249,27 +2274,27 @@
       </c>
       <c r="C54" s="16" t="inlineStr">
         <is>
-          <t>LLM validator module exists</t>
-        </is>
-      </c>
-      <c r="D54" s="17" t="inlineStr">
+          <t>LLM extraction module exists</t>
+        </is>
+      </c>
+      <c r="D54" s="18" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E54" s="16" t="inlineStr">
         <is>
-          <t>src/llm/validateCandidatesLLM.js</t>
+          <t>src/llm/extractCandidatesLLM.js</t>
         </is>
       </c>
       <c r="F54" s="16" t="inlineStr">
         <is>
-          <t>Make validator contract-driven and evidence-audited</t>
+          <t>Wire field_rules slice + enums/components into prompts</t>
         </is>
       </c>
       <c r="G54" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -2286,27 +2311,27 @@
       </c>
       <c r="C55" s="16" t="inlineStr">
         <is>
-          <t>Prompts include field_rules + enum lists + component options</t>
-        </is>
-      </c>
-      <c r="D55" s="20" t="inlineStr">
-        <is>
-          <t>Not started</t>
+          <t>LLM validator module exists</t>
+        </is>
+      </c>
+      <c r="D55" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
       <c r="E55" s="16" t="inlineStr">
         <is>
-          <t>(extractor prompt currently uses evidence + targetFields only)</t>
+          <t>src/llm/validateCandidatesLLM.js</t>
         </is>
       </c>
       <c r="F55" s="16" t="inlineStr">
         <is>
-          <t>Inject field_rules per targetFields into prompts</t>
+          <t>Make validator contract-driven and evidence-audited</t>
         </is>
       </c>
       <c r="G55" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2323,22 +2348,22 @@
       </c>
       <c r="C56" s="16" t="inlineStr">
         <is>
-          <t>Extractor outputs snippet_id + quote per candidate (not just evidenceRefs)</t>
-        </is>
-      </c>
-      <c r="D56" s="19" t="inlineStr">
-        <is>
-          <t>Partial</t>
+          <t>Prompts include field_rules + enum lists + component options</t>
+        </is>
+      </c>
+      <c r="D56" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
       <c r="E56" s="16" t="inlineStr">
         <is>
-          <t>evidenceRefs exist; quotes not required</t>
+          <t>extractCandidatesLLM now injects per-batch field contracts, enum options, and component DB refs into payload.</t>
         </is>
       </c>
       <c r="F56" s="16" t="inlineStr">
         <is>
-          <t>Require quote substrings that match snippet text; audit</t>
+          <t>Keep prompt contracts aligned with field_rules schema evolution.</t>
         </is>
       </c>
       <c r="G56" s="18" t="inlineStr">
@@ -2360,318 +2385,318 @@
       </c>
       <c r="C57" s="16" t="inlineStr">
         <is>
+          <t>Extractor outputs snippet_id + quote per candidate (not just evidenceRefs)</t>
+        </is>
+      </c>
+      <c r="D57" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E57" s="16" t="inlineStr">
+        <is>
+          <t>LLM candidates now carry snippetId/snippetHash/quote/quoteSpan and pass evidence verifier before acceptance.</t>
+        </is>
+      </c>
+      <c r="F57" s="16" t="inlineStr">
+        <is>
+          <t>Enable strict verifier mode once all sources emit complete snippet metadata.</t>
+        </is>
+      </c>
+      <c r="G57" s="18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1">
+      <c r="A58" s="15" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B58" s="16" t="inlineStr">
+        <is>
+          <t>LLM-POWERED FIELD EXTRACTION &amp; DETERMINISTIC PARSING</t>
+        </is>
+      </c>
+      <c r="C58" s="16" t="inlineStr">
+        <is>
           <t>JSON-only enforcement + strict schema validation on LLM outputs</t>
         </is>
       </c>
-      <c r="D57" s="19" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="E57" s="16" t="inlineStr">
-        <is>
-          <t>schema validated in code; still need contract-linked constraints</t>
-        </is>
-      </c>
-      <c r="F57" s="16" t="inlineStr">
-        <is>
-          <t>Tighten schemas; reject extra keys; add retry budget controls</t>
-        </is>
-      </c>
-      <c r="G57" s="18" t="inlineStr">
+      <c r="D58" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E58" s="16" t="inlineStr">
+        <is>
+          <t>callOpenAI enforces structured JSON schema with retry fallback; extraction schema expanded for citation fields.</t>
+        </is>
+      </c>
+      <c r="F58" s="16" t="inlineStr">
+        <is>
+          <t>Add additional schema-level constraints per field type as contracts harden.</t>
+        </is>
+      </c>
+      <c r="G58" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A58" s="15" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="B58" s="16" t="inlineStr">
-        <is>
-          <t>IDENTITY GATE &amp; PRODUCT DISAMBIGUATION SYSTEM</t>
-        </is>
-      </c>
-      <c r="C58" s="16" t="inlineStr">
-        <is>
-          <t>Identity gate implemented and strict</t>
-        </is>
-      </c>
-      <c r="D58" s="17" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E58" s="16" t="inlineStr">
-        <is>
-          <t>src/validation/identityGate.js</t>
-        </is>
-      </c>
-      <c r="F58" s="16" t="inlineStr">
-        <is>
-          <t>Ensure publish pipeline blocks promotion when identity ambiguous</t>
-        </is>
-      </c>
-      <c r="G58" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A59" s="15" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="B59" s="16" t="inlineStr">
-        <is>
-          <t>IDENTITY GATE &amp; PRODUCT DISAMBIGUATION SYSTEM</t>
-        </is>
-      </c>
-      <c r="C59" s="16" t="inlineStr">
-        <is>
-          <t>Final outputs include publishable=false + reason=identity_ambiguous when needed</t>
-        </is>
-      </c>
-      <c r="D59" s="20" t="inlineStr">
-        <is>
-          <t>Not started</t>
-        </is>
-      </c>
-      <c r="E59" s="16" t="inlineStr">
-        <is>
-          <t>(final outputs promoted based on scoring; publishable flag not explicit)</t>
-        </is>
-      </c>
-      <c r="F59" s="16" t="inlineStr">
-        <is>
-          <t>Add publishable + blockers to final spec; prevent promotion</t>
-        </is>
-      </c>
-      <c r="G59" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A60" s="15" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B60" s="16" t="inlineStr">
-        <is>
-          <t>PIPELINE ORCHESTRATOR, QUEUE MANAGEMENT &amp; 24/7 DAEMON</t>
-        </is>
-      </c>
-      <c r="C60" s="16" t="inlineStr">
-        <is>
-          <t>Multi-round orchestrator exists</t>
-        </is>
-      </c>
-      <c r="D60" s="17" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E60" s="16" t="inlineStr">
-        <is>
-          <t>src/runner/runUntilComplete.js</t>
-        </is>
-      </c>
-      <c r="F60" s="16" t="inlineStr">
-        <is>
-          <t>Make rounds targetFields driven by field_rules required/availability/difficulty/effort</t>
-        </is>
-      </c>
-      <c r="G60" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A61" s="15" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B61" s="16" t="inlineStr">
-        <is>
-          <t>PIPELINE ORCHESTRATOR, QUEUE MANAGEMENT &amp; 24/7 DAEMON</t>
-        </is>
-      </c>
-      <c r="C61" s="16" t="inlineStr">
-        <is>
-          <t>24/7 daemon exists</t>
-        </is>
-      </c>
-      <c r="D61" s="17" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E61" s="16" t="inlineStr">
-        <is>
-          <t>src/daemon/runDaemon.js</t>
-        </is>
-      </c>
-      <c r="F61" s="16" t="inlineStr">
-        <is>
-          <t>Add health checks + metrics; ensure safe restarts</t>
-        </is>
-      </c>
-      <c r="G61" s="18" t="inlineStr">
+    <row r="59" ht="30" customHeight="1">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>LLM-POWERED FIELD EXTRACTION &amp; DETERMINISTIC PARSING</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>Deterministic parser module implemented (regex/spec-table/json-ld with citations)</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>src/extract/deterministicParser.js + test/deterministicParser.test.js</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>Expand parser template coverage and context-negative matching per category.</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>LLM-POWERED FIELD EXTRACTION &amp; DETERMINISTIC PARSING</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>Component DB cross-reference auto-fill integrated in extraction flow</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>src/extract/componentResolver.js + runProduct integration + test/componentResolver.test.js</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>Tune property-to-field mappings and add category-specific component enrichers.</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>LLM-POWERED FIELD EXTRACTION &amp; DETERMINISTIC PARSING</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Field batching + model routing implemented with &lt;=7 extraction calls per product</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>src/llm/fieldBatching.js + extractCandidatesLLM batching tests</t>
+        </is>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>Tune per-batch evidence windows and routing thresholds from production telemetry.</t>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>LLM-POWERED FIELD EXTRACTION &amp; DETERMINISTIC PARSING</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>Content-addressed LLM extraction cache with TTL added</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>src/llm/llmCache.js + cache integration in extractCandidatesLLM + test/llmCache.test.js</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>Add cache pruning and dashboard metrics for hit-rate and stale-key churn.</t>
+        </is>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A62" s="15" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B62" s="16" t="inlineStr">
-        <is>
-          <t>PIPELINE ORCHESTRATOR, QUEUE MANAGEMENT &amp; 24/7 DAEMON</t>
-        </is>
-      </c>
-      <c r="C62" s="16" t="inlineStr">
-        <is>
-          <t>Effort model budgets are contract-driven per-field</t>
-        </is>
-      </c>
-      <c r="D62" s="19" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="E62" s="16" t="inlineStr">
-        <is>
-          <t>current budgets are round-level; learning-based</t>
-        </is>
-      </c>
-      <c r="F62" s="16" t="inlineStr">
-        <is>
-          <t>Implement per-field effort budgets from field_rules metadata</t>
-        </is>
-      </c>
-      <c r="G62" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A63" s="15" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B63" s="16" t="inlineStr">
-        <is>
-          <t>PIPELINE ORCHESTRATOR, QUEUE MANAGEMENT &amp; 24/7 DAEMON</t>
-        </is>
-      </c>
-      <c r="C63" s="16" t="inlineStr">
-        <is>
-          <t>Stop conditions (no new URLs/fields, budget exhaustion)</t>
-        </is>
-      </c>
-      <c r="D63" s="19" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="E63" s="16" t="inlineStr">
-        <is>
-          <t>some stop logic exists; needs availability-aware spec match</t>
-        </is>
-      </c>
-      <c r="F63" s="16" t="inlineStr">
-        <is>
-          <t>Add deterministic stop conditions + reporting per round</t>
-        </is>
-      </c>
-      <c r="G63" s="18" t="inlineStr">
+    <row r="63" ht="30" customHeight="1">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>LLM-POWERED FIELD EXTRACTION &amp; DETERMINISTIC PARSING</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>Evidence verifier firewall added for LLM candidates</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>src/llm/evidenceVerifier.js + extractCandidatesLLM integration + tests</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>Consider strict mode default after all evidence packs include complete snippet primitives.</t>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="30" customFormat="1" customHeight="1" s="1">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>LLM-POWERED FIELD EXTRACTION &amp; DETERMINISTIC PARSING</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>Candidate merger + conflict resolver module implemented</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>src/scoring/candidateMerger.js + test/candidateMerger.test.js</t>
+        </is>
+      </c>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <t>Wire merger outcomes into review queue prioritization and UI surfacing.</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
         <is>
           <t>Medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A64" s="15" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="B64" s="16" t="inlineStr">
-        <is>
-          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
-        </is>
-      </c>
-      <c r="C64" s="16" t="inlineStr">
-        <is>
-          <t>Review candidates persisted for every field with provenance</t>
-        </is>
-      </c>
-      <c r="D64" s="20" t="inlineStr">
-        <is>
-          <t>Not started</t>
-        </is>
-      </c>
-      <c r="E64" s="16" t="inlineStr">
-        <is>
-          <t>(no automatic review_candidates output found)</t>
-        </is>
-      </c>
-      <c r="F64" s="16" t="inlineStr">
-        <is>
-          <t>Write review_candidates.json and keep full candidate sets</t>
-        </is>
-      </c>
-      <c r="G64" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
         </is>
       </c>
     </row>
     <row r="65" ht="30" customFormat="1" customHeight="1" s="1">
       <c r="A65" s="15" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
       <c r="B65" s="16" t="inlineStr">
         <is>
-          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+          <t>IDENTITY GATE &amp; PRODUCT DISAMBIGUATION SYSTEM</t>
         </is>
       </c>
       <c r="C65" s="16" t="inlineStr">
         <is>
-          <t>Review queue output produced per product</t>
-        </is>
-      </c>
-      <c r="D65" s="20" t="inlineStr">
-        <is>
-          <t>Not started</t>
+          <t>Identity gate implemented and strict</t>
+        </is>
+      </c>
+      <c r="D65" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
       <c r="E65" s="16" t="inlineStr">
         <is>
-          <t>(override tests seed review_queue manually)</t>
+          <t>src/validator/identityGate.js + test/identityGate.test.js</t>
         </is>
       </c>
       <c r="F65" s="16" t="inlineStr">
         <is>
-          <t>Generate review_queue.json after each run; flag instrumented/conflicts</t>
+          <t>Ensure publish pipeline blocks promotion when identity ambiguous</t>
         </is>
       </c>
       <c r="G65" s="18" t="inlineStr">
@@ -2683,32 +2708,32 @@
     <row r="66" ht="30" customFormat="1" customHeight="1" s="1">
       <c r="A66" s="15" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
       <c r="B66" s="16" t="inlineStr">
         <is>
-          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+          <t>IDENTITY GATE &amp; PRODUCT DISAMBIGUATION SYSTEM</t>
         </is>
       </c>
       <c r="C66" s="16" t="inlineStr">
         <is>
-          <t>Overrides file applied deterministically without recrawl</t>
-        </is>
-      </c>
-      <c r="D66" s="19" t="inlineStr">
-        <is>
-          <t>Partial</t>
+          <t>Final outputs include publishable=false + reason=identity_ambiguous when needed</t>
+        </is>
+      </c>
+      <c r="D66" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
       <c r="E66" s="16" t="inlineStr">
         <is>
-          <t>src/review/overrideWorkflow.js</t>
+          <t>src/pipeline/runProduct.js + src/exporter/finalExporter.js + test/finalExporter.test.js</t>
         </is>
       </c>
       <c r="F66" s="16" t="inlineStr">
         <is>
-          <t>Fix overrides to preserve original evidence (url+snippet_id+quote)</t>
+          <t>Explicit publishable=false and publish_blockers now prevent final promotion; ambiguity remains blocked for review.</t>
         </is>
       </c>
       <c r="G66" s="18" t="inlineStr">
@@ -2720,143 +2745,143 @@
     <row r="67" ht="30" customFormat="1" customHeight="1" s="1">
       <c r="A67" s="15" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B67" s="16" t="inlineStr">
         <is>
-          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+          <t>PIPELINE ORCHESTRATOR, QUEUE MANAGEMENT &amp; 24/7 DAEMON</t>
         </is>
       </c>
       <c r="C67" s="16" t="inlineStr">
         <is>
-          <t>GUI Review Grid exists for selecting candidates</t>
-        </is>
-      </c>
-      <c r="D67" s="20" t="inlineStr">
-        <is>
-          <t>Not started</t>
+          <t>Multi-round orchestrator exists</t>
+        </is>
+      </c>
+      <c r="D67" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
       <c r="E67" s="16" t="inlineStr">
         <is>
-          <t>(studio exists; review grid not found)</t>
+          <t>src/runner/runUntilComplete.js</t>
         </is>
       </c>
       <c r="F67" s="16" t="inlineStr">
         <is>
-          <t>Build Data Review Grid UI (web or streamlit) bound to review_candidates</t>
+          <t>Make rounds targetFields driven by field_rules required/availability/difficulty/effort</t>
         </is>
       </c>
       <c r="G67" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="68" ht="30" customFormat="1" customHeight="1" s="1">
       <c r="A68" s="15" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B68" s="16" t="inlineStr">
         <is>
-          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+          <t>PIPELINE ORCHESTRATOR, QUEUE MANAGEMENT &amp; 24/7 DAEMON</t>
         </is>
       </c>
       <c r="C68" s="16" t="inlineStr">
         <is>
-          <t>Final publishing outputs written (spec.json/summary/etc)</t>
-        </is>
-      </c>
-      <c r="D68" s="19" t="inlineStr">
-        <is>
-          <t>Partial</t>
+          <t>24/7 daemon exists</t>
+        </is>
+      </c>
+      <c r="D68" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
       <c r="E68" s="16" t="inlineStr">
         <is>
-          <t>src/exporter/finalExporter.js</t>
+          <t>src/daemon/daemon.js + test/daemon.test.js</t>
         </is>
       </c>
       <c r="F68" s="16" t="inlineStr">
         <is>
-          <t>Add publishable gating + evidence audit before publish</t>
+          <t>Daemon loop now supports concurrency caps, stale re-crawl scans, per-job failure retry bookkeeping, and graceful signal drain behavior.</t>
         </is>
       </c>
       <c r="G68" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="69" ht="30" customFormat="1" customHeight="1" s="1">
       <c r="A69" s="15" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B69" s="16" t="inlineStr">
         <is>
-          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+          <t>PIPELINE ORCHESTRATOR, QUEUE MANAGEMENT &amp; 24/7 DAEMON</t>
         </is>
       </c>
       <c r="C69" s="16" t="inlineStr">
         <is>
-          <t>Continuous monitoring (accuracy, unk rates, evidence failures)</t>
-        </is>
-      </c>
-      <c r="D69" s="20" t="inlineStr">
-        <is>
-          <t>Not started</t>
+          <t>Effort model budgets are contract-driven per-field</t>
+        </is>
+      </c>
+      <c r="D69" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
       <c r="E69" s="16" t="inlineStr">
         <is>
-          <t>(no metrics dashboard found)</t>
+          <t>src/runner/runUntilComplete.js + test/runUntilComplete.test.js</t>
         </is>
       </c>
       <c r="F69" s="16" t="inlineStr">
         <is>
-          <t>Add metrics export + daily reports; alert on regressions</t>
+          <t>Contract effort planning now reads required_level/availability/difficulty/effort and scales round budgets for deep fill rounds.</t>
         </is>
       </c>
       <c r="G69" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="70" ht="30" customFormat="1" customHeight="1" s="1">
       <c r="A70" s="15" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B70" s="16" t="inlineStr">
         <is>
-          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+          <t>PIPELINE ORCHESTRATOR, QUEUE MANAGEMENT &amp; 24/7 DAEMON</t>
         </is>
       </c>
       <c r="C70" s="16" t="inlineStr">
         <is>
-          <t>Ops readiness: llm-health, queue e2e, caching verification</t>
-        </is>
-      </c>
-      <c r="D70" s="19" t="inlineStr">
-        <is>
-          <t>Partial</t>
+          <t>Stop conditions (no new URLs/fields, budget exhaustion)</t>
+        </is>
+      </c>
+      <c r="D70" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
       <c r="E70" s="16" t="inlineStr">
         <is>
-          <t>llm-health exists; full ops suite not</t>
+          <t>src/runner/runUntilComplete.js + test/runUntilComplete.test.js</t>
         </is>
       </c>
       <c r="F70" s="16" t="inlineStr">
         <is>
-          <t>Add diagnostics pass reports &amp; CI gates</t>
+          <t>Stop logic now includes required-search exhaustion plus existing no-progress/quality/budget checks with explicit stop_reason outputs.</t>
         </is>
       </c>
       <c r="G70" s="18" t="inlineStr">
@@ -2868,402 +2893,402 @@
     <row r="71" ht="30" customFormat="1" customHeight="1" s="1">
       <c r="A71" s="15" t="inlineStr">
         <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B71" s="16" t="inlineStr">
+        <is>
+          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+        </is>
+      </c>
+      <c r="C71" s="16" t="inlineStr">
+        <is>
+          <t>Review candidates persisted for every field with provenance</t>
+        </is>
+      </c>
+      <c r="D71" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E71" s="16" t="inlineStr">
+        <is>
+          <t>src/review/reviewGridData.js + src/pipeline/runProduct.js + test/reviewGridData.test.js</t>
+        </is>
+      </c>
+      <c r="F71" s="16" t="inlineStr">
+        <is>
+          <t>Review artifacts now emit full per-field candidates with evidence into final/&lt;category&gt;/&lt;product&gt;/review and legacy output paths.</t>
+        </is>
+      </c>
+      <c r="G71" s="18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="30" customFormat="1" customHeight="1" s="1">
+      <c r="A72" s="15" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B72" s="16" t="inlineStr">
+        <is>
+          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+        </is>
+      </c>
+      <c r="C72" s="16" t="inlineStr">
+        <is>
+          <t>Review queue output produced per product</t>
+        </is>
+      </c>
+      <c r="D72" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E72" s="16" t="inlineStr">
+        <is>
+          <t>src/review/reviewGridData.js writeProductReviewArtifacts()/writeCategoryReviewArtifacts() + src/cli/spec.js review queue/build</t>
+        </is>
+      </c>
+      <c r="F72" s="16" t="inlineStr">
+        <is>
+          <t>Queue is generated as _review/&lt;category&gt;/queue.json and sorted by urgency for triage.</t>
+        </is>
+      </c>
+      <c r="G72" s="18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="30" customFormat="1" customHeight="1" s="1">
+      <c r="A73" s="15" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B73" s="16" t="inlineStr">
+        <is>
+          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+        </is>
+      </c>
+      <c r="C73" s="16" t="inlineStr">
+        <is>
+          <t>Overrides file applied deterministically without recrawl</t>
+        </is>
+      </c>
+      <c r="D73" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E73" s="16" t="inlineStr">
+        <is>
+          <t>src/review/overrideWorkflow.js + test/reviewOverrideWorkflow.test.js</t>
+        </is>
+      </c>
+      <c r="F73" s="16" t="inlineStr">
+        <is>
+          <t>Candidate/manual overrides now preserve provenance fields and runtime validation blocks invalid finalize unless draft mode is chosen.</t>
+        </is>
+      </c>
+      <c r="G73" s="18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="30" customFormat="1" customHeight="1" s="1">
+      <c r="A74" s="15" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B74" s="16" t="inlineStr">
+        <is>
+          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+        </is>
+      </c>
+      <c r="C74" s="16" t="inlineStr">
+        <is>
+          <t>GUI Review Grid exists for selecting candidates</t>
+        </is>
+      </c>
+      <c r="D74" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E74" s="16" t="inlineStr">
+        <is>
+          <t>tools/gui/app.py Review Grid tab + review CLI integration</t>
+        </is>
+      </c>
+      <c r="F74" s="16" t="inlineStr">
+        <is>
+          <t>Added Excel-order review matrix, queue triage controls, candidate drawer, manual override, finalize, and suggestion submission actions.</t>
+        </is>
+      </c>
+      <c r="G74" s="18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="30" customFormat="1" customHeight="1" s="1">
+      <c r="A75" s="15" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B75" s="16" t="inlineStr">
+        <is>
+          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+        </is>
+      </c>
+      <c r="C75" s="16" t="inlineStr">
+        <is>
+          <t>Final publishing outputs written (spec.json/summary/etc)</t>
+        </is>
+      </c>
+      <c r="D75" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E75" s="16" t="inlineStr">
+        <is>
+          <t>src/publish/publishingPipeline.js + src/cli/spec.js publish</t>
+        </is>
+      </c>
+      <c r="F75" s="16" t="inlineStr">
+        <is>
+          <t>Publishing now merges latest ProductRecord with approved overrides, re-validates via runtime gate, writes versioned published outputs, and updates category index/changelog.</t>
+        </is>
+      </c>
+      <c r="G75" s="18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="30" customFormat="1" customHeight="1" s="1">
+      <c r="A76" s="15" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B76" s="16" t="inlineStr">
+        <is>
+          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+        </is>
+      </c>
+      <c r="C76" s="16" t="inlineStr">
+        <is>
+          <t>Continuous monitoring (accuracy, unk rates, evidence failures)</t>
+        </is>
+      </c>
+      <c r="D76" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E76" s="16" t="inlineStr">
+        <is>
+          <t>src/publish/publishingPipeline.js runAccuracyBenchmarkReport()/buildAccuracyTrend() + CLI</t>
+        </is>
+      </c>
+      <c r="F76" s="16" t="inlineStr">
+        <is>
+          <t>Continuous accuracy monitoring now writes latest + dated reports, includes per-group metrics, and flags &gt;=5% per-field regressions.</t>
+        </is>
+      </c>
+      <c r="G76" s="18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="30" customFormat="1" customHeight="1" s="1">
+      <c r="A77" s="15" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B77" s="16" t="inlineStr">
+        <is>
+          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+        </is>
+      </c>
+      <c r="C77" s="16" t="inlineStr">
+        <is>
+          <t>Ops readiness: llm-health, queue e2e, caching verification</t>
+        </is>
+      </c>
+      <c r="D77" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E77" s="16" t="inlineStr">
+        <is>
+          <t>src/cli/spec.js source-health/llm-metrics/provenance/changelog + tests</t>
+        </is>
+      </c>
+      <c r="F77" s="16" t="inlineStr">
+        <is>
+          <t>Ops command surface now includes provenance lookup, changelog queries, source-health rollups, and LLM billing metrics with budget checks.</t>
+        </is>
+      </c>
+      <c r="G77" s="18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="15" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B71" s="16" t="inlineStr">
+      <c r="B78" s="16" t="inlineStr">
         <is>
           <t>MULTI-CATEGORY EXPANSION, INTEGRATION TESTING &amp; PRODUCTION HARDENING</t>
         </is>
       </c>
-      <c r="C71" s="16" t="inlineStr">
+      <c r="C78" s="16" t="inlineStr">
         <is>
           <t>Multi-category expansion scaffolding</t>
         </is>
       </c>
-      <c r="D71" s="19" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="E71" s="16" t="inlineStr">
-        <is>
-          <t>category loader supports generated artifacts; still mouse-focused</t>
-        </is>
-      </c>
-      <c r="F71" s="16" t="inlineStr">
-        <is>
-          <t>Remove mouse-specific constants; make engine category-agnostic</t>
-        </is>
-      </c>
-      <c r="G71" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="15" t="inlineStr">
+      <c r="D78" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E78" s="16" t="inlineStr">
+        <is>
+          <t>helper_files/monitor/_generated/* + helper_files/keyboard/_generated/* via phase10-bootstrap + compile-rules --all + src/phase10/expansionHardening.js + src/field-rules/compiler.js + test/phase2CompilerPipeline.test.js</t>
+        </is>
+      </c>
+      <c r="F78" s="16" t="inlineStr">
+        <is>
+          <t>Scaffolds now compile from starter workbooks using auto-bootstrap workbook_map fallback; monitor/keyboard generated artifacts and golden manifests are present.</t>
+        </is>
+      </c>
+      <c r="G78" s="18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B72" s="16" t="inlineStr">
+      <c r="B79" s="16" t="inlineStr">
         <is>
           <t>MULTI-CATEGORY EXPANSION, INTEGRATION TESTING &amp; PRODUCTION HARDENING</t>
         </is>
       </c>
-      <c r="C72" s="16" t="inlineStr">
+      <c r="C79" s="16" t="inlineStr">
         <is>
           <t>Hardening: fuzz tests, load tests, failure injection</t>
         </is>
       </c>
-      <c r="D72" s="20" t="inlineStr">
-        <is>
-          <t>Not started</t>
-        </is>
-      </c>
-      <c r="E72" s="16" t="inlineStr">
-        <is>
-          <t>(no fuzz/load test harness found)</t>
-        </is>
-      </c>
-      <c r="F72" s="16" t="inlineStr">
-        <is>
-          <t>Add replay fuzzing + concurrency/load harness; CI</t>
-        </is>
-      </c>
-      <c r="G72" s="18" t="inlineStr">
+      <c r="D79" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E79" s="16" t="inlineStr">
+        <is>
+          <t>src/phase10/expansionHardening.js runQueueLoadHarness()/runFailureInjectionHarness()/runFuzzSourceHealthHarness() + src/cli/spec.js hardening-harness + tests</t>
+        </is>
+      </c>
+      <c r="F79" s="16" t="inlineStr">
+        <is>
+          <t>Harnesses now cover queue load, retry/failure injection, and malformed-source fuzzing; extend with higher-volume CI stress profiles as throughput scales.</t>
+        </is>
+      </c>
+      <c r="G79" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="15" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B73" s="16" t="inlineStr">
+      <c r="B80" s="16" t="inlineStr">
         <is>
           <t>MULTI-CATEGORY EXPANSION, INTEGRATION TESTING &amp; PRODUCTION HARDENING</t>
         </is>
       </c>
-      <c r="C73" s="16" t="inlineStr">
+      <c r="C80" s="16" t="inlineStr">
         <is>
           <t>Production hardening: dependency cleanup, security, compliance</t>
         </is>
       </c>
-      <c r="D73" s="20" t="inlineStr">
-        <is>
-          <t>Not started</t>
-        </is>
-      </c>
-      <c r="E73" s="16" t="inlineStr">
-        <is>
-          <t>(no pass1 hygiene report)</t>
-        </is>
-      </c>
-      <c r="F73" s="16" t="inlineStr">
-        <is>
-          <t>Implement 3-pass diagnostics outputs + dependency audits</t>
-        </is>
-      </c>
-      <c r="G73" s="18" t="inlineStr">
+      <c r="D80" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E80" s="16" t="inlineStr">
+        <is>
+          <t>src/phase10/expansionHardening.js runProductionHardeningReport() + src/cli/spec.js hardening-report + test coverage</t>
+        </is>
+      </c>
+      <c r="F80" s="16" t="inlineStr">
+        <is>
+          <t>Hardening diagnostics now report lockfile/dependency/docs/gitignore hygiene; expand into automated remediation playbooks in ops runbooks.</t>
+        </is>
+      </c>
+      <c r="G80" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
-        </is>
-      </c>
-      <c r="C74" s="21" t="inlineStr">
-        <is>
-          <t>Shared schema pack exists under categories/_shared for generated artifacts</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E74" s="21" t="inlineStr">
-        <is>
-          <t>categories/_shared/base_field_schema.json + base_component_schema.json + artifact schemas</t>
-        </is>
-      </c>
-      <c r="F74" s="21" t="inlineStr">
-        <is>
-          <t>Keep schemas versioned and align stricter validation with authoring contract evolution</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
-        </is>
-      </c>
-      <c r="C75" s="21" t="inlineStr">
-        <is>
-          <t>Per-field required metadata validation enforced (required_level/availability/difficulty/effort/evidence/unknown_reason)</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E75" s="21" t="inlineStr">
-        <is>
-          <t>src/field-rules/compiler.js validateRules() metadata audit + tests</t>
-        </is>
-      </c>
-      <c r="F75" s="21" t="inlineStr">
-        <is>
-          <t>Keep metadata schema strict and fail CI on missing contract metadata</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
-        </is>
-      </c>
-      <c r="C76" s="21" t="inlineStr">
-        <is>
-          <t>init-category generates user-editable _source/field_catalog.xlsx template</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E76" s="21" t="inlineStr">
-        <is>
-          <t>src/field-rules/compiler.js initCategory() + ExcelJS starter workbook + tests</t>
-        </is>
-      </c>
-      <c r="F76" s="21" t="inlineStr">
-        <is>
-          <t>Keep workbook format stable and intuitive for non-technical editors</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
-        </is>
-      </c>
-      <c r="C77" s="21" t="inlineStr">
-        <is>
-          <t>Compiler normalization enforces required schema blocks per field (contract/priority/parse/evidence)</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E77" s="21" t="inlineStr">
-        <is>
-          <t>src/field-rules/compiler.js normalizeFieldRulesForPhase1() + validate-rules pass</t>
-        </is>
-      </c>
-      <c r="F77" s="21" t="inlineStr">
-        <is>
-          <t>Keep normalization defaults stable and schema-aligned across categories</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
-        </is>
-      </c>
-      <c r="C78" s="21" t="inlineStr">
-        <is>
-          <t>Regression test covers sparse field normalization (missing evidence object)</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E78" s="21" t="inlineStr">
-        <is>
-          <t>test/phase1FieldRulesCompiler.test.js normalizeFieldRulesForPhase1 backfill test</t>
-        </is>
-      </c>
-      <c r="F78" s="21" t="inlineStr">
-        <is>
-          <t>Expand regression set for future control-plane edge cases</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
-        </is>
-      </c>
-      <c r="C79" s="21" t="inlineStr">
-        <is>
-          <t>Phase 1 verification pass: compile-rules + validate-rules successful on mouse (75-field scope)</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E79" s="21" t="inlineStr">
-        <is>
-          <t>node src/cli/spec.js compile-rules --category mouse --local + validate-rules --category mouse --local</t>
-        </is>
-      </c>
-      <c r="F79" s="21" t="inlineStr">
-        <is>
-          <t>Use this as go/no-go gate before Phase 2 changes</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
-        </is>
-      </c>
-      <c r="C80" s="21" t="inlineStr">
-        <is>
-          <t>Dry-run diff is stable (no-change) when using existing workbook_map/control-plane context</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E80" s="21" t="inlineStr">
-        <is>
-          <t>src/field-rules/compiler.js dry-run staging + test/phase1FieldRulesCompiler.test.js</t>
-        </is>
-      </c>
-      <c r="F80" s="21" t="inlineStr">
-        <is>
-          <t>Retain semantic compare rules for volatile keys only.</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>High</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ARTIFACT COMPILATION PIPELINE &amp; VALIDATION TOOLCHAIN</t>
+          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>compile-rules --all batch mode for initialized categories</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
+          <t>Shared schema pack exists under categories/_shared for generated artifacts</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>src/field-rules/compiler.js compileRulesAll() + src/cli/spec.js compile-rules --all + test/phase2CompilerPipeline.test.js</t>
+          <t>categories/_shared/base_field_schema.json + base_component_schema.json + artifact schemas</t>
         </is>
       </c>
       <c r="F81" s="21" t="inlineStr">
         <is>
-          <t>Batch compile path supports discovery + dry-run aggregation for category fleets.</t>
+          <t>Keep schemas versioned and align stricter validation with authoring contract evolution</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3275,32 +3300,32 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ARTIFACT COMPILATION PIPELINE &amp; VALIDATION TOOLCHAIN</t>
+          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Golden fixture lifecycle commands (create-golden/test-golden/accuracy-report)</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
+          <t>Per-field required metadata validation enforced (required_level/availability/difficulty/effort/evidence/unknown_reason)</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>src/testing/goldenFiles.js + src/cli/spec.js create-golden/test-golden/accuracy-report + test/goldenFiles.test.js</t>
+          <t>src/field-rules/compiler.js validateRules() metadata audit + tests</t>
         </is>
       </c>
       <c r="F82" s="21" t="inlineStr">
         <is>
-          <t>Supports single-case authoring, Excel-seeded batch creation, fixture validation, and accuracy reporting.</t>
+          <t>Keep metadata schema strict and fail CI on missing contract metadata</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3312,32 +3337,32 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ARTIFACT COMPILATION PIPELINE &amp; VALIDATION TOOLCHAIN</t>
+          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Generated manifest.json with SHA-256 artifact verification</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
+          <t>init-category generates user-editable _source/field_catalog.xlsx template</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>src/field-rules/compiler.js ensurePhase1Artifacts() manifest generation + validateRules() manifest verification</t>
+          <t>src/field-rules/compiler.js initCategory() + ExcelJS starter workbook + tests</t>
         </is>
       </c>
       <c r="F83" s="21" t="inlineStr">
         <is>
-          <t>Manifest now tracks hashed generated artifacts and validation checks integrity.</t>
+          <t>Keep workbook format stable and intuitive for non-technical editors</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3349,69 +3374,69 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ARTIFACT COMPILATION PIPELINE &amp; VALIDATION TOOLCHAIN</t>
+          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>compile-report and rules-diff operational reporting commands</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
+          <t>Compiler normalization enforces required schema blocks per field (contract/priority/parse/evidence)</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
       </c>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>src/field-rules/compiler.js readCompileReport()/rulesDiff() + src/cli/spec.js compile-report/rules-diff + test/phase2CompilerPipeline.test.js</t>
+          <t>src/field-rules/compiler.js normalizeFieldRulesForPhase1() + validate-rules pass</t>
         </is>
       </c>
       <c r="F84" s="21" t="inlineStr">
         <is>
-          <t>Provides immediate post-compile diagnostics and breaking-change classification output.</t>
+          <t>Keep normalization defaults stable and schema-aligned across categories</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FIELD RULES RUNTIME ENGINE (NO BYPASS)</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Phase 3 TDD baseline added for engine API (core smoke coverage)</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>test/fieldRulesEngine.test.js (13 focused API tests including strict evidence, cross-validation types, normalization_fn, determinism)</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Expand to 50+ normalization cases per type and integration/golden regression coverage.</t>
+          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
+        </is>
+      </c>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>Regression test covers sparse field normalization (missing evidence object)</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>test/phase1FieldRulesCompiler.test.js normalizeFieldRulesForPhase1 backfill test</t>
+        </is>
+      </c>
+      <c r="F85" s="21" t="inlineStr">
+        <is>
+          <t>Expand regression set for future control-plane edge cases</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3423,111 +3448,1184 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
+        </is>
+      </c>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>Phase 1 verification pass: compile-rules + validate-rules successful on mouse (75-field scope)</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>node src/cli/spec.js compile-rules --category mouse --local + validate-rules --category mouse --local</t>
+        </is>
+      </c>
+      <c r="F86" s="21" t="inlineStr">
+        <is>
+          <t>Use this as go/no-go gate before Phase 2 changes</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CATEGORY SCHEMA &amp; FIELD RULES AUTHORING SYSTEM</t>
+        </is>
+      </c>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>Dry-run diff is stable (no-change) when using existing workbook_map/control-plane context</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>src/field-rules/compiler.js dry-run staging + test/phase1FieldRulesCompiler.test.js</t>
+        </is>
+      </c>
+      <c r="F87" s="21" t="inlineStr">
+        <is>
+          <t>Retain semantic compare rules for volatile keys only.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ARTIFACT COMPILATION PIPELINE &amp; VALIDATION TOOLCHAIN</t>
+        </is>
+      </c>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>compile-rules --all batch mode for initialized categories</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>src/field-rules/compiler.js compileRulesAll() + src/cli/spec.js compile-rules --all + test/phase2CompilerPipeline.test.js</t>
+        </is>
+      </c>
+      <c r="F88" s="21" t="inlineStr">
+        <is>
+          <t>Batch compile path supports discovery + dry-run aggregation for category fleets.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ARTIFACT COMPILATION PIPELINE &amp; VALIDATION TOOLCHAIN</t>
+        </is>
+      </c>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>Golden fixture lifecycle commands (create-golden/test-golden/accuracy-report)</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>src/testing/goldenFiles.js + src/cli/spec.js create-golden/test-golden/accuracy-report + test/goldenFiles.test.js</t>
+        </is>
+      </c>
+      <c r="F89" s="21" t="inlineStr">
+        <is>
+          <t>Supports single-case authoring, Excel-seeded batch creation, fixture validation, and accuracy reporting.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ARTIFACT COMPILATION PIPELINE &amp; VALIDATION TOOLCHAIN</t>
+        </is>
+      </c>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>Generated manifest.json with SHA-256 artifact verification</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>src/field-rules/compiler.js ensurePhase1Artifacts() manifest generation + validateRules() manifest verification</t>
+        </is>
+      </c>
+      <c r="F90" s="21" t="inlineStr">
+        <is>
+          <t>Manifest now tracks hashed generated artifacts and validation checks integrity.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ARTIFACT COMPILATION PIPELINE &amp; VALIDATION TOOLCHAIN</t>
+        </is>
+      </c>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>compile-report and rules-diff operational reporting commands</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>src/field-rules/compiler.js readCompileReport()/rulesDiff() + src/cli/spec.js compile-report/rules-diff + test/phase2CompilerPipeline.test.js</t>
+        </is>
+      </c>
+      <c r="F91" s="21" t="inlineStr">
+        <is>
+          <t>Provides immediate post-compile diagnostics and breaking-change classification output.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>03</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>FIELD RULES RUNTIME ENGINE (NO BYPASS)</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Phase 3 TDD baseline added for engine API (core smoke coverage)</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>test/fieldRulesEngine.test.js (13 focused API tests including strict evidence, cross-validation types, normalization_fn, determinism)</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Expand to 50+ normalization cases per type and integration/golden regression coverage.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>FIELD RULES RUNTIME ENGINE (NO BYPASS)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>Normalization helper library extracted for reusable coercion/unit parsing</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>normalization-functions.js expanded with polling/dimension/color/latency/date/boolean helpers + dedicated unit tests.</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>Add additional category-specific helper functions as new contracts appear.</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="B87" s="1" t="inlineStr">
+      <c r="B94" s="1" t="inlineStr">
         <is>
           <t>FIELD RULES RUNTIME ENGINE (NO BYPASS)</t>
         </is>
       </c>
-      <c r="C87" s="1" t="inlineStr">
+      <c r="C94" s="1" t="inlineStr">
         <is>
           <t>Runtime gate integrated into runProduct (engine-first normalization with no-bypass rejection path)</t>
         </is>
       </c>
-      <c r="D87" s="1" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E87" s="1" t="inlineStr">
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
         <is>
           <t>src/engine/runtimeGate.js + src/pipeline/runProduct.js runtime_engine summary + failure demotion path</t>
         </is>
       </c>
-      <c r="F87" s="1" t="inlineStr">
+      <c r="F94" s="1" t="inlineStr">
         <is>
           <t>Enable fieldRulesEngineEnforceEvidence once deterministic snippet_id/quote coverage is complete across crawler/extractors.</t>
         </is>
       </c>
-      <c r="G87" s="1" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+      <c r="G94" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="B88" s="1" t="inlineStr">
+      <c r="B95" s="1" t="inlineStr">
         <is>
           <t>FIELD RULES RUNTIME ENGINE (NO BYPASS)</t>
         </is>
       </c>
-      <c r="C88" s="1" t="inlineStr">
+      <c r="C95" s="1" t="inlineStr">
         <is>
           <t>Runtime gate TDD coverage added (normalization, closed enum rejection, cross-validation, strict evidence mode)</t>
         </is>
       </c>
-      <c r="D88" s="1" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E88" s="1" t="inlineStr">
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
         <is>
           <t>test/runtimeGate.test.js (5 tests) + npm test (198 passing)</t>
         </is>
       </c>
-      <c r="F88" s="1" t="inlineStr">
+      <c r="F95" s="1" t="inlineStr">
         <is>
           <t>Expand to golden replay determinism + confidence calibration metrics in next Phase 3 pass.</t>
         </is>
       </c>
-      <c r="G88" s="1" t="inlineStr">
-        <is>
-          <t>High</t>
+      <c r="G95" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>IDENTITY GATE &amp; PRODUCT DISAMBIGUATION SYSTEM</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Per-run identity_report.json artifact emitted with page-level decisions/reason codes</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>src/validator/identityGate.js buildIdentityReport() + src/pipeline/runProduct.js runBase/identity_report.json</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Report now records page confidence/decision/matched hard IDs/tokens and reconciliation status for audit + review grid inputs.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="30" customHeight="1">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>IDENTITY GATE &amp; PRODUCT DISAMBIGUATION SYSTEM</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Phase 1-6 verification sweep executed (compile/validate/golden verify + runtime dry-run artifacts)</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>node src/cli/spec.js compile-rules/validate-rules/field-rules-verify + run-one --dry-run + npm test (226 passing)</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Confirmed identity_report.json, run evidence artifacts, final evidence/history updates, and publishable=false gating on ambiguous run.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="30" customHeight="1">
+      <c r="A98" s="15" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B98" s="16" t="inlineStr">
+        <is>
+          <t>PIPELINE ORCHESTRATOR, QUEUE MANAGEMENT &amp; 24/7 DAEMON</t>
+        </is>
+      </c>
+      <c r="C98" s="16" t="inlineStr">
+        <is>
+          <t>Queue CLI supports add/add-batch/list/stats/retry/pause/clear</t>
+        </is>
+      </c>
+      <c r="D98" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E98" s="16" t="inlineStr">
+        <is>
+          <t>src/cli/spec.js queue command + test/queueCli.test.js</t>
+        </is>
+      </c>
+      <c r="F98" s="16" t="inlineStr">
+        <is>
+          <t>Queue command surface implemented with local/S3 parity and CSV batch ingestion.</t>
+        </is>
+      </c>
+      <c r="G98" s="18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="15" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B99" s="16" t="inlineStr">
+        <is>
+          <t>PIPELINE ORCHESTRATOR, QUEUE MANAGEMENT &amp; 24/7 DAEMON</t>
+        </is>
+      </c>
+      <c r="C99" s="16" t="inlineStr">
+        <is>
+          <t>Queue retry backoff + stale recrawl marking implemented</t>
+        </is>
+      </c>
+      <c r="D99" s="18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E99" s="16" t="inlineStr">
+        <is>
+          <t>src/queue/queueState.js + test/queueState.test.js</t>
+        </is>
+      </c>
+      <c r="F99" s="16" t="inlineStr">
+        <is>
+          <t>Exponential retry scheduling, hard-fail at max attempts, and stale completed-product recrawl marking are now covered by tests.</t>
+        </is>
+      </c>
+      <c r="G99" s="18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Suggestion feedback files for enum/component/alias are persisted with evidence</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>src/review/suggestions.js + src/cli/spec.js review suggest + test/reviewSuggestions.test.js</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Pending suggestions are written under helper_files/&lt;category&gt;/_suggestions with dedupe and evidence requirement.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Bulk triage actions available in GUI for review workflow</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>tools/gui/app.py Review Grid tab + src/cli/spec.js review approve-greens + src/review/overrideWorkflow.js</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>One-click Approve Greens is now wired in GUI and CLI, writing deterministic candidate-selection overrides in bulk.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Keyboard-first shortcuts implemented (Tab/1-9/Ctrl+A/Ctrl+S)</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>tools/gui/app.py Review Grid tab (Quick Action + Candidate # quick-apply form)</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Keyboard-first workflow now includes quick actions for ctrl+a/ctrl+s/ctrl+p/ctrl+f plus 1-9 candidate quick apply via Candidate # form with Enter submit.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Live queue update channel (WebSocket) implemented</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>src/review/queueWebSocket.js + src/cli/spec.js review ws-queue + test/reviewQueueWebSocket.test.js</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Native /ws/queue websocket channel now pushes snapshot + queue_updated events with changed product ids; GUI keeps polling fallback for reliability.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DATA REVIEW GRID GUI &amp; HUMAN-IN-THE-LOOP OVERRIDES</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Review throughput metrics exposed (products/hour, overrides/product, avg review time)</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>src/review/overrideWorkflow.js buildReviewMetrics() + src/cli/spec.js review metrics + tools/gui/app.py Review Grid metrics panel</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Metrics now roll up from audited override/finalize metadata and are visible in the review workstation.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Publish CLI supports single product and all-approved batches</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>src/cli/spec.js commandPublish + test/publishCli.test.js</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Supports --product-id and --all-approved workflows with incremental publish behavior.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Published artifact set includes current/compact/provenance/changelog/jsonld/markdown</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>src/publish/publishingPipeline.js writePublishedProductFiles()</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Per-product published folder now includes full + compact payloads, provenance export, changelog, JSON-LD, markdown, and version archives.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Bulk export outputs generated (CSV/XLSX/SQLite/feed)</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>src/publish/publishingPipeline.js writeBulkExports()</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Writes all_products.csv, all_products.xlsx, all_products.sqlite (python sqlite fallback), and feed.json.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Provenance and changelog query APIs available via CLI</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>src/publish/publishingPipeline.js readPublishedProvenance()/readPublishedChangelog() + CLI</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Supports field-level provenance trace and full per-product changelog lookup.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Accuracy benchmark + trend commands operational</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>src/publish/publishingPipeline.js runAccuracyBenchmarkReport()/buildAccuracyTrend() + test/publishingPipeline.test.js</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Adds accuracy-benchmark and accuracy-trend CLI workflows with persisted report artifacts.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Source health monitoring command operational</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>src/publish/publishingPipeline.js buildSourceHealth() + CLI</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Aggregates attempts/success/block rates from evidence source history files.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>LLM performance/cost monitoring command operational</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>src/publish/publishingPipeline.js buildLlmMetrics() + CLI</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Aggregates ledger costs/tokens by model and evaluates period budget thresholds.</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PUBLISHING PIPELINE, OUTPUT FORMATS &amp; CONTINUOUS ACCURACY MONITORING</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Drift detection + auto-republish scheduler</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>src/publish/driftScheduler.js + src/daemon/daemon.js drift hooks + src/cli/spec.js drift-scan/drift-reconcile + test/driftScheduler.test.js</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Daily drift hash scan now enqueues drift_reextract jobs; post-rerun reconcile auto-queues manual review on value diffs, quarantines evidence failures, and auto-republishes when no diff remains.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ADDENDUM: PRACTICAL CHATMOCK INTEGRATION ON WINDOWS (MODEL TIERING + AUTORECOVERY)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Lifecycle control: start/stop/restart via docker compose -f &lt;path&gt;</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>src/llm/cortex_lifecycle.js + src/cli/spec.js cortex-start/stop/restart + scripts/chatmock-ctl.bat</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Implements Docker Compose remote control without copying ChatMock sources; verified ChatMock docker-compose has restart: unless-stopped.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ADDENDUM: PRACTICAL CHATMOCK INTEGRATION ON WINDOWS (MODEL TIERING + AUTORECOVERY)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Readiness check uses /v1/models with robust base URL normalization</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>src/llm/cortex_lifecycle.js status()/ensureRunning() + stripTrailingV1() + test/cortexLifecycle.test.js</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Readiness is based on API model listing instead of process-only checks.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ADDENDUM: PRACTICAL CHATMOCK INTEGRATION ON WINDOWS (MODEL TIERING + AUTORECOVERY)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Router defaults to GPT-5 Low and escalates to High only when needed with deep cap</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>src/llm/cortex_router.js + src/config.js CORTEX_* model/escalation vars + test/cortexRouter.test.js</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Deep usage is bounded by CORTEX_MAX_DEEP_FIELDS_PER_PRODUCT.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ADDENDUM: PRACTICAL CHATMOCK INTEGRATION ON WINDOWS (MODEL TIERING + AUTORECOVERY)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Circuit breaker + sidecar fallback to non-sidecar execution</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>src/llm/cortex_health.js + src/llm/cortex_client.js + test/cortexClient.test.js</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sidecar failures/unavailability no longer block progression; fallback path is explicit.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ADDENDUM: PRACTICAL CHATMOCK INTEGRATION ON WINDOWS (MODEL TIERING + AUTORECOVERY)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Pipeline/CLI integration and verification coverage for Phase 11 paths</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>src/pipeline/runProduct.js cortex_sidecar summary integration + src/cli/spec.js cortex-* commands + test/cortexCli.test.js + test/cortexConfig.test.js</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Validated with npm test (273 passing) and live cortex-status/ensure/run-pass command checks.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3536,17 +4634,17 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D17:D71">
-    <cfRule type="expression" priority="1" dxfId="0">
+  <conditionalFormatting sqref="D17:D111">
+    <cfRule type="expression" priority="1" dxfId="4">
       <formula>$D17="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="1">
+    <cfRule type="expression" priority="2" dxfId="5">
       <formula>$D17="Partial"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="2">
+    <cfRule type="expression" priority="3" dxfId="6">
       <formula>$D17="Not started"</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="3">
+    <cfRule type="expression" priority="4" dxfId="7">
       <formula>$D17="Unknown"</formula>
     </cfRule>
   </conditionalFormatting>
